--- a/results/input_test_1/h2000_M0.3_R1000km_PL1000kg/ReqPowDATA.xlsx
+++ b/results/input_test_1/h2000_M0.3_R1000km_PL1000kg/ReqPowDATA.xlsx
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>65.67182888993179</v>
+        <v>68.96384061189593</v>
       </c>
       <c r="F2" t="n">
-        <v>65.67182888993179</v>
+        <v>68.96384061189593</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>131.3436577798636</v>
+        <v>137.9276812237919</v>
       </c>
       <c r="F3" t="n">
-        <v>131.3436577798636</v>
+        <v>137.9276812237919</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1272.527140922896</v>
+        <v>1336.316475759114</v>
       </c>
       <c r="F4" t="n">
-        <v>956.476354661803</v>
+        <v>1004.423953121557</v>
       </c>
       <c r="G4" t="n">
-        <v>316.0507862610927</v>
+        <v>331.8925226375571</v>
       </c>
     </row>
     <row r="5">
@@ -555,19 +555,19 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>11.04744599232788</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5.047445992327883</v>
       </c>
       <c r="E5" t="n">
-        <v>1313.436577798636</v>
+        <v>1379.276812237919</v>
       </c>
       <c r="F5" t="n">
-        <v>987.2630523799879</v>
+        <v>1036.754158048569</v>
       </c>
       <c r="G5" t="n">
-        <v>326.1735254186478</v>
+        <v>342.5226541893499</v>
       </c>
     </row>
     <row r="6">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>11.04744599232788</v>
       </c>
       <c r="C6" t="n">
-        <v>160.5469495223887</v>
+        <v>161.4315534591884</v>
       </c>
       <c r="D6" t="n">
-        <v>154.5469495223887</v>
+        <v>150.3841074668605</v>
       </c>
       <c r="E6" t="n">
-        <v>728.955934311861</v>
+        <v>765.4903451861667</v>
       </c>
       <c r="F6" t="n">
-        <v>728.955934311861</v>
+        <v>765.4903451861667</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -602,19 +602,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.5469495223887</v>
+        <v>161.4315534591884</v>
       </c>
       <c r="C7" t="n">
-        <v>175.5469495223887</v>
+        <v>176.4315534591884</v>
       </c>
       <c r="D7" t="n">
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>728.9388215544208</v>
+        <v>612.377903269915</v>
       </c>
       <c r="F7" t="n">
-        <v>728.9388215544208</v>
+        <v>612.377903269915</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.5469495223887</v>
+        <v>176.4315534591884</v>
       </c>
       <c r="C8" t="n">
-        <v>176.5469495223887</v>
+        <v>177.4315534591884</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
